--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_10_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_10_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4058030.006969457</v>
+        <v>4059790.537272244</v>
       </c>
     </row>
     <row r="7">
@@ -664,7 +664,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>25.96124341869889</v>
+        <v>298.3293410714039</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.52272637982375</v>
+        <v>98.52272637982421</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>37.35456516024224</v>
+        <v>37.35456516024314</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1059,13 +1059,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>143.9686748871315</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>217.3275530275975</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
@@ -1116,13 +1116,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>35.54361781414391</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>220.8789552701359</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1308,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>91.60520094445855</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>49.15028699323075</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1542,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>93.4044447618827</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1663,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1770,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>55.52079624060384</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>160.6789846282037</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2329,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>239.7247859410132</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2851,7 +2851,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>28.75188085812011</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>215.4001370164107</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3189,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>117.8112368377021</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3556,7 +3556,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>19.91555826189063</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>253.2918698186439</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>531.4162778577429</v>
+        <v>740.1619192519192</v>
       </c>
       <c r="C2" t="n">
-        <v>162.4537609173312</v>
+        <v>371.1994023115075</v>
       </c>
       <c r="D2" t="n">
-        <v>136.2302827166252</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="E2" t="n">
-        <v>136.2302827166252</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="F2" t="n">
-        <v>129.2847819674218</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.313418796629</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.250531453059</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="W2" t="n">
-        <v>1291.481876182944</v>
+        <v>1500.227517577121</v>
       </c>
       <c r="X2" t="n">
-        <v>918.0161179218646</v>
+        <v>1126.761759316041</v>
       </c>
       <c r="Y2" t="n">
-        <v>918.0161179218646</v>
+        <v>1126.761759316041</v>
       </c>
     </row>
     <row r="3">
@@ -4385,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
         <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>801.9449557744472</v>
+        <v>801.9449557744476</v>
       </c>
       <c r="M3" t="n">
-        <v>1165.206974733667</v>
+        <v>1165.206974733668</v>
       </c>
       <c r="N3" t="n">
         <v>1552.492103330613</v>
       </c>
       <c r="O3" t="n">
-        <v>1884.562538506774</v>
+        <v>1884.562538506775</v>
       </c>
       <c r="P3" t="n">
         <v>2447.023413292609</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,58 +4464,58 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>932.6070201144361</v>
+        <v>932.6070201144365</v>
       </c>
       <c r="C4" t="n">
-        <v>763.6708371865292</v>
+        <v>763.6708371865296</v>
       </c>
       <c r="D4" t="n">
-        <v>613.5541977741934</v>
+        <v>613.5541977741939</v>
       </c>
       <c r="E4" t="n">
-        <v>465.6411041918003</v>
+        <v>465.6411041918008</v>
       </c>
       <c r="F4" t="n">
-        <v>318.7511566938899</v>
+        <v>318.7511566938904</v>
       </c>
       <c r="G4" t="n">
-        <v>150.7646920021685</v>
+        <v>150.764692002169</v>
       </c>
       <c r="H4" t="n">
-        <v>150.7646920021685</v>
+        <v>150.764692002169</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.23396574994</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
         <v>1114.255484944676</v>
@@ -4564,16 +4564,16 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4594,22 +4594,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.89447953245</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U5" t="n">
-        <v>1975.313418796629</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V5" t="n">
         <v>1644.250531453059</v>
       </c>
       <c r="W5" t="n">
-        <v>1291.481876182944</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X5" t="n">
-        <v>918.0161179218646</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="Y5" t="n">
         <v>880.2842339216199</v>
@@ -4643,25 +4643,25 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L6" t="n">
-        <v>801.9449557744472</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M6" t="n">
-        <v>1165.206974733667</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N6" t="n">
-        <v>1552.492103330613</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O6" t="n">
-        <v>1884.562538506774</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
         <v>2447.023413292609</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>368.0960630783031</v>
+        <v>621.5776595052479</v>
       </c>
       <c r="C7" t="n">
-        <v>199.1598801503962</v>
+        <v>452.641476577341</v>
       </c>
       <c r="D7" t="n">
-        <v>199.1598801503962</v>
+        <v>302.5248371650052</v>
       </c>
       <c r="E7" t="n">
-        <v>51.2467865680031</v>
+        <v>302.5248371650052</v>
       </c>
       <c r="F7" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="G7" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1314.339932754122</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1025.22159525796</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V7" t="n">
-        <v>770.537107052073</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="W7" t="n">
-        <v>770.537107052073</v>
+        <v>803.2261243354876</v>
       </c>
       <c r="X7" t="n">
-        <v>770.537107052073</v>
+        <v>803.2261243354876</v>
       </c>
       <c r="Y7" t="n">
-        <v>549.7445279085429</v>
+        <v>803.2261243354876</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>438.8191504929254</v>
+        <v>505.192799657037</v>
       </c>
       <c r="C8" t="n">
-        <v>69.85663355251364</v>
+        <v>136.2302827166252</v>
       </c>
       <c r="D8" t="n">
-        <v>69.85663355251364</v>
+        <v>136.2302827166252</v>
       </c>
       <c r="E8" t="n">
-        <v>69.85663355251364</v>
+        <v>136.2302827166252</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331017</v>
+        <v>129.2847819674218</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816085</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2526.436684143444</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2526.436684143444</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2272.855623407624</v>
+        <v>2339.229272571735</v>
       </c>
       <c r="V8" t="n">
-        <v>1941.792736064053</v>
+        <v>2008.166385228164</v>
       </c>
       <c r="W8" t="n">
-        <v>1589.024080793939</v>
+        <v>1655.39772995805</v>
       </c>
       <c r="X8" t="n">
-        <v>1215.558322532859</v>
+        <v>1281.931971696971</v>
       </c>
       <c r="Y8" t="n">
-        <v>825.4189905570472</v>
+        <v>891.7926397211588</v>
       </c>
     </row>
     <row r="9">
@@ -4880,7 +4880,7 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
         <v>238.4273302370161</v>
@@ -4889,13 +4889,13 @@
         <v>423.148951518066</v>
       </c>
       <c r="L9" t="n">
-        <v>1057.327935297104</v>
+        <v>717.8525085495378</v>
       </c>
       <c r="M9" t="n">
-        <v>1420.589954256325</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N9" t="n">
-        <v>1867.77024428415</v>
+        <v>1715.293511287796</v>
       </c>
       <c r="O9" t="n">
         <v>2199.840679460312</v>
@@ -4938,49 +4938,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>716.5983551657491</v>
+        <v>716.5983551657496</v>
       </c>
       <c r="C10" t="n">
-        <v>547.6621722378422</v>
+        <v>547.6621722378427</v>
       </c>
       <c r="D10" t="n">
-        <v>397.5455328255065</v>
+        <v>397.5455328255069</v>
       </c>
       <c r="E10" t="n">
-        <v>249.6324392431134</v>
+        <v>249.6324392431138</v>
       </c>
       <c r="F10" t="n">
-        <v>249.6324392431134</v>
+        <v>249.6324392431138</v>
       </c>
       <c r="G10" t="n">
-        <v>249.6324392431134</v>
+        <v>249.6324392431138</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>100.89354110662</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -5001,13 +5001,13 @@
         <v>1636.446120074497</v>
       </c>
       <c r="W10" t="n">
-        <v>1347.028950037536</v>
+        <v>1347.028950037537</v>
       </c>
       <c r="X10" t="n">
         <v>1119.039399139519</v>
       </c>
       <c r="Y10" t="n">
-        <v>898.2468199959889</v>
+        <v>898.2468199959893</v>
       </c>
     </row>
     <row r="11">
@@ -5038,22 +5038,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5062,7 +5062,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5117,31 +5117,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5260,10 +5260,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5272,19 +5272,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014778</v>
@@ -5299,28 +5299,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5536,31 +5536,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5588,19 +5588,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
         <v>1373.553594266881</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282753</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5734,13 +5734,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5749,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,22 +5828,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5971,10 +5971,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
@@ -5986,25 +5986,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6074,13 +6074,13 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6126,22 +6126,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6214,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>560.7825789706076</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>391.8463960427007</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>241.729756630365</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6411,25 +6411,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1735.314832085242</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1480.630343879355</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1191.213173842395</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>963.2236229443774</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>742.4310438008473</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.77365361686</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362679</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6490,25 +6490,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>697.5276345711974</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>697.5276345711974</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711974</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6651,22 +6651,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1979.486649511395</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1690.411422855592</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1435.726934649706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1146.309764612745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>918.3202137147275</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>697.5276345711974</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6697,22 +6697,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>734.6461798836013</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>734.6461798836013</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>584.5295404712656</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>436.6164468888725</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>436.6164468888725</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6885,25 +6885,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>916.2946447138411</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6925,34 +6925,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7165,13 +7165,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
@@ -7180,13 +7180,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>391.8463960427007</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>241.729756630365</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2426.846358063199</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2243.991523718104</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7839,19 +7839,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8063,7 +8063,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>211.0329012241558</v>
+        <v>211.0329012241562</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,13 +8297,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>211.0329012241558</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>265.0304328515144</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8537,16 +8537,16 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>342.9044714621886</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>60.50016306149558</v>
+        <v>249.387732507165</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>154.0169020165192</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="H13" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23658,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>110.003342051665</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>125.5054897610405</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24606,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24651,13 +24651,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>46.45968844823096</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>2.005313310877568</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>47.7129014545667</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25554,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.45968844823106</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>32.89260457060021</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>611459.3894176278</v>
+        <v>611459.3894176279</v>
       </c>
     </row>
     <row r="16">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642834</v>
+        <v>821041.7698642835</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642834</v>
+        <v>821041.7698642835</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642834</v>
+        <v>821041.7698642835</v>
       </c>
       <c r="E2" t="n">
+        <v>807146.5996900061</v>
+      </c>
+      <c r="F2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="G2" t="n">
         <v>807146.599690006</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
+        <v>807146.5996900061</v>
+      </c>
+      <c r="I2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="J2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="K2" t="n">
+        <v>807146.5996900063</v>
+      </c>
+      <c r="L2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="M2" t="n">
+        <v>807146.5996900061</v>
+      </c>
+      <c r="N2" t="n">
         <v>807146.599690006</v>
       </c>
-      <c r="G2" t="n">
-        <v>807146.5996900063</v>
-      </c>
-      <c r="H2" t="n">
-        <v>807146.5996900062</v>
-      </c>
-      <c r="I2" t="n">
-        <v>807146.5996900061</v>
-      </c>
-      <c r="J2" t="n">
-        <v>807146.5996900063</v>
-      </c>
-      <c r="K2" t="n">
-        <v>807146.5996900061</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
         <v>807146.5996900065</v>
-      </c>
-      <c r="M2" t="n">
-        <v>807146.599690006</v>
-      </c>
-      <c r="N2" t="n">
-        <v>807146.5996900061</v>
-      </c>
-      <c r="O2" t="n">
-        <v>807146.5996900062</v>
       </c>
       <c r="P2" t="n">
         <v>807146.5996900062</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.441624546</v>
+        <v>507485.4416245458</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>131909.726831625</v>
       </c>
       <c r="C4" t="n">
-        <v>131909.726831625</v>
+        <v>131909.7268316249</v>
       </c>
       <c r="D4" t="n">
         <v>131909.726831625</v>
@@ -26429,16 +26429,16 @@
         <v>6897.424496707359</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707412</v>
       </c>
       <c r="G4" t="n">
+        <v>6897.424496707425</v>
+      </c>
+      <c r="H4" t="n">
         <v>6897.424496707359</v>
       </c>
-      <c r="H4" t="n">
-        <v>6897.42449670736</v>
-      </c>
       <c r="I4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="J4" t="n">
         <v>6897.424496707359</v>
@@ -26450,7 +26450,7 @@
         <v>6897.424496707359</v>
       </c>
       <c r="M4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="N4" t="n">
         <v>6897.424496707359</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-518557.5129831057</v>
+        <v>-518557.5129831058</v>
       </c>
       <c r="C6" t="n">
-        <v>596194.2705928137</v>
+        <v>596194.2705928138</v>
       </c>
       <c r="D6" t="n">
-        <v>596194.2705928137</v>
+        <v>596194.2705928138</v>
       </c>
       <c r="E6" t="n">
-        <v>191293.8244904887</v>
+        <v>191606.4658194102</v>
       </c>
       <c r="F6" t="n">
-        <v>698779.2661150346</v>
+        <v>699091.9074439561</v>
       </c>
       <c r="G6" t="n">
-        <v>698779.2661150349</v>
+        <v>699091.9074439559</v>
       </c>
       <c r="H6" t="n">
-        <v>698779.2661150348</v>
+        <v>699091.907443956</v>
       </c>
       <c r="I6" t="n">
-        <v>698779.2661150347</v>
+        <v>699091.9074439561</v>
       </c>
       <c r="J6" t="n">
-        <v>531174.0883050524</v>
+        <v>531486.7296339736</v>
       </c>
       <c r="K6" t="n">
-        <v>698779.2661150347</v>
+        <v>699091.9074439562</v>
       </c>
       <c r="L6" t="n">
-        <v>698779.266115035</v>
+        <v>699091.9074439561</v>
       </c>
       <c r="M6" t="n">
-        <v>566171.9723861079</v>
+        <v>566484.6137150293</v>
       </c>
       <c r="N6" t="n">
-        <v>698779.2661150347</v>
+        <v>699091.9074439559</v>
       </c>
       <c r="O6" t="n">
-        <v>698779.2661150348</v>
+        <v>699091.9074439564</v>
       </c>
       <c r="P6" t="n">
-        <v>698779.2661150348</v>
+        <v>699091.9074439561</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>433.9106082241345</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,7 +27384,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>328.7217982019841</v>
+        <v>56.35370054927904</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27399,7 +27399,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>6.273868824076828</v>
+        <v>6.273868824076374</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>348.8833734958113</v>
+        <v>348.8833734958105</v>
       </c>
     </row>
     <row r="6">
@@ -27779,22 +27779,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>1.452373135799746</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>3.421142969614465</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27836,13 +27836,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27873,7 +27873,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>87.90859758465047</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>30.16629485832607</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>55.64630821067033</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>55.64630821066983</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28383,7 +28383,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28578,7 +28578,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -31044,43 +31044,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,7 +31135,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31144,25 +31144,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31235,13 +31235,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31281,43 +31281,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,7 +31372,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31381,25 +31381,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31472,13 +31472,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31518,43 +31518,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,7 +31609,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31618,25 +31618,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31709,13 +31709,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31837,16 +31837,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>533.6019216797995</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31855,16 +31855,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32083,7 +32083,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>337.5641188593844</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32092,7 +32092,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32323,7 +32323,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>444.2274915982894</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32557,7 +32557,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>337.5641188593844</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32794,7 +32794,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>337.5641188593844</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32943,7 +32943,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33423,7 +33423,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
         <v>867.846407116256</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,16 +34777,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>508.7132618620059</v>
+        <v>508.7132618620064</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
         <v>391.1970995928739</v>
@@ -34795,10 +34795,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634694</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34868,7 +34868,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34877,7 +34877,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,16 +35014,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>508.7132618620059</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>631.9617651335549</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
@@ -35032,10 +35032,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35105,7 +35105,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35114,7 +35114,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>640.5848321000387</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>451.6972626543695</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>489.4415840126422</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35342,7 +35342,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35351,7 +35351,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35485,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>395.0475418999253</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35503,16 +35503,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,7 +35731,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>199.0097390795102</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35740,7 +35740,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35971,7 +35971,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>302.093457676271</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -36123,7 +36123,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,7 +36205,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>199.0097390795102</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36360,7 +36360,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
@@ -36442,7 +36442,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>199.0097390795102</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36840,7 +36840,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37071,7 +37071,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37791,7 +37791,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
